--- a/map-data/personal-datasets/XLSX/tirbalCrimeBJS.xlsx
+++ b/map-data/personal-datasets/XLSX/tirbalCrimeBJS.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\DIGIT\GitHub\NativeGone\map-data\personal-datasets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5751925-2F18-4034-966C-8D327604AA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA6B3A-683E-42FC-B359-B380C8BC6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16872" xr2:uid="{482D3894-D319-4223-980A-378D19ED0A31}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{482D3894-D319-4223-980A-378D19ED0A31}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
-    <sheet name="2010-2012" sheetId="2" r:id="rId2"/>
+    <sheet name="2010-2015" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
     <sheet name="2013-2015" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2010-2012'!$B$2:$B$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2010-2015'!$B$2:$B$124</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="72">
   <si>
     <t>State</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Passamaquoddy Pleasant Point Tribal</t>
-  </si>
-  <si>
-    <t>Penobscot Nation</t>
   </si>
   <si>
     <t>Year</t>
@@ -266,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +287,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -335,8 +339,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594EBB4E-A682-4671-8AFF-2E7E42F524D7}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -1034,67 +1042,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89807F1-6181-4758-B3E2-6B7B45F80E8B}">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>2010</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
@@ -1104,93 +1114,117 @@
       <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <f>COUNTIF(E2:H6,"&gt;0")/24</f>
+      <c r="H2" s="9">
+        <v>48.556917400000003</v>
+      </c>
+      <c r="I2" s="9">
+        <v>-113.0134175</v>
+      </c>
+      <c r="J2" s="6">
+        <f>COUNTIF(D2:G6,"&gt;0")/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2012</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
       <c r="E3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="9">
+        <v>48.556917400000003</v>
+      </c>
+      <c r="I3" s="9">
+        <v>-113.0134175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2013</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
+      <c r="D4">
+        <v>57</v>
+      </c>
       <c r="E4">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H4" s="9">
+        <v>48.556917400000003</v>
+      </c>
+      <c r="I4" s="9">
+        <v>-113.0134175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2014</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5">
+        <v>252</v>
+      </c>
       <c r="E5">
-        <v>252</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>12</v>
-      </c>
-      <c r="H5">
         <v>233</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H5" s="9">
+        <v>48.556917400000003</v>
+      </c>
+      <c r="I5" s="9">
+        <v>-113.0134175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2015</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
       <c r="E6">
         <v>0</v>
       </c>
@@ -1200,570 +1234,714 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="9">
+        <v>48.556917400000003</v>
+      </c>
+      <c r="I6" s="9">
+        <v>-113.0134175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2013</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G7" s="6">
-        <v>13</v>
-      </c>
-      <c r="H7" s="6">
         <v>14</v>
       </c>
-      <c r="K7" s="6">
-        <f>COUNTIF(E7:H9,"&gt;0")/24</f>
+      <c r="H7" s="9">
+        <v>44.9886537</v>
+      </c>
+      <c r="I7" s="9">
+        <v>-101.2224805</v>
+      </c>
+      <c r="J7" s="6">
+        <f>COUNTIF(D7:G9,"&gt;0")/24</f>
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>86</v>
       </c>
       <c r="E8">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H8" s="9">
+        <v>44.9886537</v>
+      </c>
+      <c r="I8" s="9">
+        <v>-101.2224805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>234</v>
       </c>
       <c r="E9">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
         <v>222</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="9">
+        <v>44.9886537</v>
+      </c>
+      <c r="I9" s="9">
+        <v>-101.2224805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>2010</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D10" s="6">
+        <v>31</v>
+      </c>
       <c r="E10" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="6">
-        <v>7</v>
-      </c>
-      <c r="H10" s="6">
         <v>24</v>
       </c>
-      <c r="K10" s="6">
-        <f>COUNTIF(E10:H15,"&gt;0")/24</f>
+      <c r="H10" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I10" s="9">
+        <v>-107.4645278</v>
+      </c>
+      <c r="J10" s="6">
+        <f>COUNTIF(D10:G15,"&gt;0")/24</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2011</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>13</v>
+      </c>
       <c r="E11">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H11" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I11" s="9">
+        <v>-107.4645278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2012</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
       <c r="E12">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H12" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I12" s="9">
+        <v>-107.4645278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2013</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
       <c r="E13">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H13" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I13" s="9">
+        <v>-107.4645278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2014</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="D14">
         <v>25</v>
       </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
       <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H14" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-107.4645278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2015</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
       <c r="E15">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="9">
+        <v>45.604141400000003</v>
+      </c>
+      <c r="I15" s="9">
+        <v>-107.4645278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>2010</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6">
+        <v>9</v>
       </c>
       <c r="E16" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6">
         <v>6</v>
       </c>
-      <c r="K16" s="6">
-        <f>COUNTIF(E16:H21,"&gt;0")/24</f>
+      <c r="H16" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+      <c r="J16" s="6">
+        <f>COUNTIF(D16:G21,"&gt;0")/24</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H17" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I17" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>42</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I18" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2013</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I19" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
       </c>
       <c r="E20">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>9</v>
-      </c>
-      <c r="H21">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="9">
+        <v>44.068601000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <v>-99.437884600000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>2010</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5</v>
       </c>
       <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>5</v>
-      </c>
-      <c r="K22" s="6">
-        <f>COUNTIF(E22:H26,"&gt;0")/24</f>
+      <c r="H22">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="I22">
+        <v>-96.603184387447499</v>
+      </c>
+      <c r="J22" s="6">
+        <f>COUNTIF(D22:G26,"&gt;0")/24</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="I23">
+        <v>-96.603184387447499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="I24">
+        <v>-96.603184387447499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="I25">
+        <v>-96.603184387447499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="I26">
+        <v>-96.603184387447499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2011</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D27" s="6">
+        <v>41</v>
+      </c>
       <c r="E27" s="6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F27" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G27" s="6">
-        <v>3</v>
-      </c>
-      <c r="H27" s="6">
         <v>35</v>
       </c>
-      <c r="K27" s="6">
-        <f>COUNTIF(E27:H28,"&gt;0")/24</f>
+      <c r="H27">
+        <v>47.628007998691899</v>
+      </c>
+      <c r="I27">
+        <v>-114.115353414095</v>
+      </c>
+      <c r="J27" s="6">
+        <f>COUNTIF(D27:G28,"&gt;0")/24</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
       <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>68</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28">
-        <v>68</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>9</v>
-      </c>
       <c r="H28">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47.628007998691899</v>
+      </c>
+      <c r="I28">
+        <v>-114.115353414095</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>2013</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D29" s="6">
+        <v>8</v>
+      </c>
       <c r="E29" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="6">
-        <v>1</v>
-      </c>
-      <c r="H29" s="6">
-        <v>7</v>
-      </c>
-      <c r="K29" s="6">
-        <f>COUNTIF(E29:H31,"&gt;0")/24</f>
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>46.713569298605499</v>
+      </c>
+      <c r="I29">
+        <v>-92.516085482087803</v>
+      </c>
+      <c r="J29" s="6">
+        <f>COUNTIF(D29:G31,"&gt;0")/24</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
         <v>23</v>
       </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
@@ -1774,1240 +1952,1514 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46.713569298605499</v>
+      </c>
+      <c r="I30">
+        <v>-92.516085482087803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
         <v>23</v>
       </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
       <c r="E31">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46.713569298605499</v>
+      </c>
+      <c r="I31">
+        <v>-92.516085482087803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>2011</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D32" s="6">
+        <v>29</v>
+      </c>
       <c r="E32" s="6">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F32" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32" s="6">
-        <v>8</v>
-      </c>
-      <c r="H32" s="6">
         <v>20</v>
       </c>
-      <c r="K32" s="6">
-        <f>COUNTIF(E32:H36,"&gt;0")/24</f>
+      <c r="H32" s="9">
+        <v>48.533330900000003</v>
+      </c>
+      <c r="I32" s="9">
+        <v>-108.7840463</v>
+      </c>
+      <c r="J32" s="6">
+        <f>COUNTIF(D32:G36,"&gt;0")/24</f>
         <v>0.70833333333333337</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2012</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
         <v>16</v>
       </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
       <c r="E33">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H33" s="9">
+        <v>48.533330900000003</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-108.7840463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2013</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
         <v>16</v>
       </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
       <c r="E34">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H34" s="9">
+        <v>48.533330900000003</v>
+      </c>
+      <c r="I34" s="9">
+        <v>-108.7840463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>16</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <v>20</v>
       </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
       <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H35" s="9">
+        <v>48.533330900000003</v>
+      </c>
+      <c r="I35" s="9">
+        <v>-108.7840463</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
         <v>16</v>
       </c>
+      <c r="D36">
+        <v>22</v>
+      </c>
       <c r="E36">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="H36" s="9">
+        <v>48.533330900000003</v>
+      </c>
+      <c r="I36" s="9">
+        <v>-108.7840463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>2011</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D37" s="6">
+        <v>44</v>
+      </c>
       <c r="E37" s="6">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="6">
-        <v>1</v>
-      </c>
-      <c r="H37" s="6">
         <v>43</v>
       </c>
-      <c r="I37" s="7">
+      <c r="H37" s="9">
         <v>47.980848299999998</v>
       </c>
-      <c r="J37" s="7">
+      <c r="I37" s="9">
         <v>-102.4901804</v>
       </c>
-      <c r="K37" s="6">
-        <f>COUNTIF(E37:H38,"&gt;0")/24</f>
+      <c r="J37" s="6">
+        <f>COUNTIF(D37:G38,"&gt;0")/24</f>
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2014</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>2</v>
       </c>
+      <c r="D38">
+        <v>53</v>
+      </c>
       <c r="E38">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G38">
-        <v>6</v>
-      </c>
-      <c r="H38">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="9">
+        <v>47.980848299999998</v>
+      </c>
+      <c r="I38" s="9">
+        <v>-102.4901804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>2010</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D39" s="6">
+        <v>49</v>
+      </c>
       <c r="E39" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="F39" s="6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G39" s="6">
-        <v>12</v>
-      </c>
-      <c r="H39" s="6">
         <v>34</v>
       </c>
-      <c r="K39" s="6">
-        <f>COUNTIF(E39:H44,"&gt;0")/24</f>
+      <c r="H39" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I39" s="9">
+        <v>-105.183425</v>
+      </c>
+      <c r="J39" s="6">
+        <f>COUNTIF(D39:G44,"&gt;0")/24</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2011</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
+      <c r="D40">
+        <v>49</v>
+      </c>
       <c r="E40">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>9</v>
-      </c>
-      <c r="H40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H40" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I40" s="9">
+        <v>-105.183425</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012</v>
       </c>
       <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
+      <c r="D41">
+        <v>42</v>
+      </c>
       <c r="E41">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>5</v>
-      </c>
-      <c r="H41">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H41" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I41" s="9">
+        <v>-105.183425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2013</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
+      <c r="D42">
+        <v>44</v>
+      </c>
       <c r="E42">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H42" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I42" s="9">
+        <v>-105.183425</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2014</v>
       </c>
       <c r="B43" t="s">
         <v>39</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>16</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <v>74</v>
       </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
       <c r="G43">
-        <v>13</v>
-      </c>
-      <c r="H43">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H43" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I43" s="9">
+        <v>-105.183425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2015</v>
       </c>
       <c r="B44" t="s">
         <v>39</v>
       </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
+      <c r="D44">
+        <v>80</v>
+      </c>
       <c r="E44">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>15</v>
-      </c>
-      <c r="H44">
         <v>64</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="H44" s="9">
+        <v>48.122236000000001</v>
+      </c>
+      <c r="I44" s="9">
+        <v>-105.183425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>2011</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D45" s="6">
+        <v>70</v>
+      </c>
       <c r="E45" s="6">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45" s="6">
-        <v>6</v>
-      </c>
-      <c r="H45" s="6">
         <v>61</v>
       </c>
-      <c r="I45" s="7">
+      <c r="H45" s="10">
         <v>47.979998600000002</v>
       </c>
-      <c r="J45" s="7">
+      <c r="I45" s="10">
         <v>-98.992900500000005</v>
       </c>
-      <c r="K45" s="6">
-        <f>COUNTIF(E45:H49,"&gt;0")/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+      <c r="J45" s="6">
+        <f>COUNTIF(D45:G48,"&gt;0")/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2012</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>2</v>
       </c>
+      <c r="D46">
+        <v>26</v>
+      </c>
       <c r="E46">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
         <v>22</v>
       </c>
-      <c r="I46" s="5">
+      <c r="H46" s="9">
         <v>47.979998600000002</v>
       </c>
-      <c r="J46" s="5">
+      <c r="I46" s="9">
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
       <c r="B47" t="s">
         <v>4</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>2</v>
       </c>
+      <c r="D47">
+        <v>57</v>
+      </c>
       <c r="E47">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>5</v>
-      </c>
-      <c r="H47">
         <v>52</v>
       </c>
-      <c r="I47" s="5">
+      <c r="H47" s="9">
         <v>47.979998600000002</v>
       </c>
-      <c r="J47" s="5">
+      <c r="I47" s="9">
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2015</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>2</v>
       </c>
+      <c r="D48">
+        <v>48</v>
+      </c>
       <c r="E48">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
         <v>39</v>
       </c>
-      <c r="I48" s="5">
+      <c r="H48" s="9">
         <v>47.979998600000002</v>
       </c>
-      <c r="J48" s="5">
+      <c r="I48" s="9">
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>2010</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C49" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E49">
+      <c r="D49" s="6">
         <v>95</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6">
         <v>8</v>
       </c>
-      <c r="H49">
+      <c r="G49" s="6">
         <v>87</v>
       </c>
-      <c r="I49" s="5">
+      <c r="H49" s="10">
         <v>47.979998600000002</v>
       </c>
-      <c r="J49" s="5">
+      <c r="I49" s="10">
         <v>-98.992900500000005</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J49" s="6">
+        <f>COUNTIF(D49:G49,"&gt;0")/24</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2011</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="6">
+        <v>67</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6">
         <v>57</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="6">
-        <v>67</v>
-      </c>
-      <c r="F50" s="6">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6">
-        <v>5</v>
-      </c>
-      <c r="H50" s="6">
-        <v>57</v>
-      </c>
-      <c r="K50" s="6">
-        <f>COUNTIF(E50:H53,"&gt;0")/24</f>
+      <c r="H50">
+        <v>47.384109616414896</v>
+      </c>
+      <c r="I50">
+        <v>-94.601092081257704</v>
+      </c>
+      <c r="J50" s="6">
+        <f>COUNTIF(D50:G53,"&gt;0")/24</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2012</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
         <v>23</v>
       </c>
+      <c r="D51">
+        <v>64</v>
+      </c>
       <c r="E51">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="H51">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47.384109616414896</v>
+      </c>
+      <c r="I51">
+        <v>-94.601092081257704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2014</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
         <v>23</v>
       </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
       <c r="E52">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H52">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47.384109616414896</v>
+      </c>
+      <c r="I52">
+        <v>-94.601092081257704</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
         <v>23</v>
       </c>
+      <c r="D53">
+        <v>36</v>
+      </c>
       <c r="E53">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G53">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47.384109616414896</v>
+      </c>
+      <c r="I53">
+        <v>-94.601092081257704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>2010</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>9</v>
       </c>
       <c r="E54" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F54" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="6">
-        <v>5</v>
-      </c>
-      <c r="H54" s="6">
         <v>4</v>
       </c>
-      <c r="K54" s="6">
-        <f>COUNTIF(E54:H59,"&gt;0")/24</f>
+      <c r="H54" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I54" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+      <c r="J54" s="6">
+        <f>COUNTIF(D54:G59,"&gt;0")/24</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2011</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
       </c>
       <c r="E55">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>7</v>
-      </c>
-      <c r="H55">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H55" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I55" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2012</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>88</v>
       </c>
       <c r="E56">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G56">
-        <v>12</v>
-      </c>
-      <c r="H56">
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H56" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I56" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2013</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>54</v>
       </c>
       <c r="E57">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
         <v>51</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H57" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I57" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58">
+        <v>35</v>
       </c>
       <c r="E58">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="H58">
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H58" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I58" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2015</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
+        <v>48</v>
+      </c>
+      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
       </c>
       <c r="E59">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59">
-        <v>3</v>
-      </c>
-      <c r="H59">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="9">
+        <v>44.0748794</v>
+      </c>
+      <c r="I59" s="9">
+        <v>-99.580080899999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>2013</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D60" s="6">
+        <v>17</v>
+      </c>
       <c r="E60" s="6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F60" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G60" s="6">
-        <v>3</v>
-      </c>
-      <c r="H60" s="6">
         <v>9</v>
       </c>
-      <c r="K60" s="6">
-        <f>COUNTIF(E60:H62,"&gt;0")/24</f>
+      <c r="H60">
+        <v>44.532707621665097</v>
+      </c>
+      <c r="I60">
+        <v>-94.995835527161105</v>
+      </c>
+      <c r="J60" s="6">
+        <f>COUNTIF(D60:G62,"&gt;0")/24</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
         <v>23</v>
       </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
       <c r="E61">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>44.532707621665097</v>
+      </c>
+      <c r="I61">
+        <v>-94.995835527161105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
         <v>23</v>
       </c>
+      <c r="D62">
+        <v>28</v>
+      </c>
       <c r="E62">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H62">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44.532707621665097</v>
+      </c>
+      <c r="I62">
+        <v>-94.995835527161105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>2013</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D63" s="6">
+        <v>23</v>
+      </c>
       <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
         <v>23</v>
       </c>
-      <c r="F63" s="6">
-        <v>0</v>
-      </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>23</v>
-      </c>
-      <c r="K63" s="6">
-        <f>COUNTIF(E63:H65,"&gt;0")/24</f>
+      <c r="H63">
+        <v>46.178536344161401</v>
+      </c>
+      <c r="I63">
+        <v>-93.754949868211398</v>
+      </c>
+      <c r="J63" s="6">
+        <f>COUNTIF(D63:G65,"&gt;0")/24</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2014</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
         <v>23</v>
       </c>
+      <c r="D64">
+        <v>21</v>
+      </c>
       <c r="E64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>46.178536344161401</v>
+      </c>
+      <c r="I64">
+        <v>-93.754949868211398</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
         <v>23</v>
       </c>
+      <c r="D65">
+        <v>29</v>
+      </c>
       <c r="E65">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H65">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46.178536344161401</v>
+      </c>
+      <c r="I65">
+        <v>-93.754949868211398</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>2011</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D66" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
       <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
         <v>2</v>
       </c>
-      <c r="F66" s="6">
-        <v>0</v>
-      </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <v>2</v>
-      </c>
-      <c r="K66" s="6">
-        <f>COUNTIF(E66:H70,"&gt;0")/24</f>
+      <c r="H66">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="I66">
+        <v>-93.096071201339896</v>
+      </c>
+      <c r="J66" s="6">
+        <f>COUNTIF(D66:G70,"&gt;0")/24</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2012</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
-      </c>
-      <c r="D67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" t="s">
         <v>23</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="I67">
+        <v>-93.096071201339896</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
         <v>23</v>
       </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
       <c r="E68">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="I68">
+        <v>-93.096071201339896</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2014</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="s">
         <v>23</v>
       </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
       <c r="E69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H69">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="I69">
+        <v>-93.096071201339896</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" t="s">
         <v>23</v>
       </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>5</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
       <c r="H70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="I70">
+        <v>-93.096071201339896</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>2010</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="D71" s="6">
+        <v>46</v>
+      </c>
       <c r="E71" s="6">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="F71" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G71" s="6">
-        <v>5</v>
-      </c>
-      <c r="H71" s="6">
         <v>39</v>
       </c>
-      <c r="K71" s="6">
-        <f>COUNTIF(E71:H76,"&gt;0")/24</f>
+      <c r="H71" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I71" s="9">
+        <v>-106.6666984</v>
+      </c>
+      <c r="J71" s="6">
+        <f>COUNTIF(D71:G76,"&gt;0")/24</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2011</v>
       </c>
       <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>16</v>
       </c>
+      <c r="D72">
+        <v>33</v>
+      </c>
       <c r="E72">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>7</v>
-      </c>
-      <c r="H72">
         <v>24</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H72" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I72" s="9">
+        <v>-106.6666984</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2012</v>
       </c>
       <c r="B73" t="s">
         <v>40</v>
       </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>16</v>
       </c>
+      <c r="D73">
+        <v>20</v>
+      </c>
       <c r="E73">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G73">
         <v>9</v>
       </c>
-      <c r="H73">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H73" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I73" s="9">
+        <v>-106.6666984</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2013</v>
       </c>
       <c r="B74" t="s">
         <v>40</v>
       </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>16</v>
       </c>
+      <c r="D74">
+        <v>26</v>
+      </c>
       <c r="E74">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H74" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I74" s="9">
+        <v>-106.6666984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2014</v>
       </c>
       <c r="B75" t="s">
         <v>40</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>16</v>
       </c>
-      <c r="E75">
+      <c r="D75">
         <v>54</v>
       </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
       <c r="G75">
-        <v>8</v>
-      </c>
-      <c r="H75">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H75" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I75" s="9">
+        <v>-106.6666984</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2015</v>
       </c>
       <c r="B76" t="s">
         <v>40</v>
       </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>16</v>
       </c>
+      <c r="D76">
+        <v>46</v>
+      </c>
       <c r="E76">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G76">
-        <v>7</v>
-      </c>
-      <c r="H76">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="9">
+        <v>45.6230476</v>
+      </c>
+      <c r="I76" s="9">
+        <v>-106.6666984</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>2010</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="6">
+        <v>40</v>
       </c>
       <c r="E77" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F77" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G77" s="6">
-        <v>10</v>
-      </c>
-      <c r="H77" s="6">
         <v>22</v>
       </c>
-      <c r="K77" s="6">
-        <f>COUNTIF(E77:H80,"&gt;0")/24</f>
+      <c r="H77">
+        <v>43.026244115782703</v>
+      </c>
+      <c r="I77">
+        <v>-102.557561839858</v>
+      </c>
+      <c r="J77" s="6">
+        <f>COUNTIF(D77:G80,"&gt;0")/24</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2011</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>57</v>
       </c>
       <c r="E78">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G78">
         <v>25</v>
       </c>
       <c r="H78">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43.026244115782703</v>
+      </c>
+      <c r="I78">
+        <v>-102.557561839858</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>59</v>
       </c>
       <c r="E79">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>43.026244115782703</v>
+      </c>
+      <c r="I79">
+        <v>-102.557561839858</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2013</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>56</v>
       </c>
       <c r="E80">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G80">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43.026244115782703</v>
+      </c>
+      <c r="I80">
+        <v>-102.557561839858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>2010</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="D81" s="6">
+        <v>0</v>
+      </c>
       <c r="E81" s="6">
         <v>0</v>
       </c>
@@ -3017,1137 +3469,1313 @@
       <c r="G81" s="6">
         <v>0</v>
       </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <f>COUNTIF(E81:H82,"&gt;0")/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H81">
+        <v>45.227353405923097</v>
+      </c>
+      <c r="I81">
+        <v>-67.577096151310698</v>
+      </c>
+      <c r="J81" s="6">
+        <f>COUNTIF(D81:G81,"&gt;0")/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2010</v>
       </c>
       <c r="B82" t="s">
         <v>43</v>
       </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>23</v>
       </c>
+      <c r="D82">
+        <v>29</v>
+      </c>
       <c r="E82">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H82">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44.965800096570099</v>
+      </c>
+      <c r="I82">
+        <v>-67.0645559156698</v>
+      </c>
+      <c r="J82" s="6">
+        <f>COUNTIF(D82:G82,"&gt;0")/24</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>2010</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="6">
+        <v>83</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+      <c r="F83" s="6">
+        <v>7</v>
+      </c>
+      <c r="G83" s="6">
+        <v>62</v>
+      </c>
+      <c r="H83" s="9">
+        <v>43.025540800000002</v>
+      </c>
+      <c r="I83" s="9">
+        <v>-102.5562743</v>
+      </c>
+      <c r="J83" s="6">
+        <f>COUNTIF(D83:G85,"&gt;0")/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2011</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>63</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84">
+        <v>51</v>
+      </c>
+      <c r="H84" s="9">
+        <v>43.025540800000002</v>
+      </c>
+      <c r="I84" s="9">
+        <v>-102.5562743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2014</v>
+      </c>
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>7</v>
+      </c>
+      <c r="G85">
+        <v>3</v>
+      </c>
+      <c r="H85" s="9">
+        <v>43.025540800000002</v>
+      </c>
+      <c r="I85" s="9">
+        <v>-102.5562743</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="6">
-        <v>3</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0</v>
-      </c>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
-        <v>3</v>
-      </c>
-      <c r="K83" s="6">
-        <f>COUNTIF(E83:H83,"&gt;0")/24</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="6">
+      <c r="D86" s="6">
+        <v>108</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>8</v>
+      </c>
+      <c r="G86" s="6">
+        <v>91</v>
+      </c>
+      <c r="H86" s="9">
+        <v>47.876345999999998</v>
+      </c>
+      <c r="I86" s="9">
+        <v>-95.016940099999999</v>
+      </c>
+      <c r="J86" s="6">
+        <f>COUNTIF(D86:G88,"&gt;0")/24</f>
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2014</v>
+      </c>
+      <c r="B87" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87">
+        <v>82</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>7</v>
+      </c>
+      <c r="G87">
+        <v>55</v>
+      </c>
+      <c r="H87" s="9">
+        <v>47.876345999999998</v>
+      </c>
+      <c r="I87" s="9">
+        <v>-95.016940099999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>45</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+      <c r="G88">
+        <v>37</v>
+      </c>
+      <c r="H88" s="9">
+        <v>47.876345999999998</v>
+      </c>
+      <c r="I88" s="9">
+        <v>-95.016940099999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
         <v>2010</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="6">
-        <v>83</v>
-      </c>
-      <c r="F84" s="6">
-        <v>1</v>
-      </c>
-      <c r="G84" s="6">
-        <v>7</v>
-      </c>
-      <c r="H84" s="6">
+      <c r="B89" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="6">
+        <v>28</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>13</v>
+      </c>
+      <c r="G89" s="6">
+        <v>11</v>
+      </c>
+      <c r="H89" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I89" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+      <c r="J89" s="6">
+        <f>COUNTIF(D89:G94,"&gt;0")/24</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2011</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90">
         <v>62</v>
       </c>
-      <c r="K84" s="6">
-        <f>COUNTIF(E84:H86,"&gt;0")/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>2011</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85">
-        <v>63</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>8</v>
-      </c>
-      <c r="H85">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>2014</v>
-      </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>10</v>
       </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>7</v>
-      </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="6">
-        <v>2013</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="6">
-        <v>108</v>
-      </c>
-      <c r="F87" s="6">
-        <v>1</v>
-      </c>
-      <c r="G87" s="6">
-        <v>8</v>
-      </c>
-      <c r="H87" s="6">
-        <v>91</v>
-      </c>
-      <c r="K87" s="6">
-        <f>COUNTIF(E87:H90,"&gt;0")/24</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>2014</v>
-      </c>
-      <c r="B88" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88">
-        <v>82</v>
-      </c>
-      <c r="F88">
-        <v>4</v>
-      </c>
-      <c r="G88">
-        <v>7</v>
-      </c>
-      <c r="H88">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>2015</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89">
-        <v>45</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>7</v>
-      </c>
-      <c r="H89">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E90" s="6">
-        <v>28</v>
-      </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="6">
-        <v>13</v>
-      </c>
-      <c r="H90" s="6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>52</v>
+      </c>
+      <c r="H90" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I90" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
         <v>16</v>
       </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
       <c r="E91">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="H91">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H91" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I91" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B92" t="s">
         <v>41</v>
       </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>16</v>
       </c>
+      <c r="D92">
+        <v>39</v>
+      </c>
       <c r="E92">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G92">
-        <v>13</v>
-      </c>
-      <c r="H92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="H92" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I92" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B93" t="s">
         <v>41</v>
       </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>16</v>
       </c>
-      <c r="E93">
-        <v>39</v>
+      <c r="D93">
+        <v>61</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G93">
-        <v>4</v>
-      </c>
-      <c r="H93">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H93" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I93" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B94" t="s">
         <v>41</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>16</v>
       </c>
+      <c r="D94">
+        <v>84</v>
+      </c>
       <c r="E94">
-        <v>61</v>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>8</v>
       </c>
       <c r="G94">
-        <v>6</v>
-      </c>
-      <c r="H94">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>2015</v>
-      </c>
-      <c r="B95" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95">
-        <v>84</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
+        <v>70</v>
+      </c>
+      <c r="H94" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="I94" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="6">
+        <v>240</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+      <c r="F95" s="6">
+        <v>44</v>
+      </c>
+      <c r="G95" s="6">
+        <v>194</v>
+      </c>
+      <c r="H95" s="9">
+        <v>43.305836800000002</v>
+      </c>
+      <c r="I95" s="9">
+        <v>-100.6581944</v>
+      </c>
+      <c r="J95" s="6">
+        <f>COUNTIF(C95:F98,"&gt;0")/24</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2012</v>
+      </c>
+      <c r="B96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>385</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>27</v>
+      </c>
+      <c r="G96">
+        <v>351</v>
+      </c>
+      <c r="H96" s="9">
+        <v>43.305836800000002</v>
+      </c>
+      <c r="I96" s="9">
+        <v>-100.6581944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2013</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>432</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <v>410</v>
+      </c>
+      <c r="H97" s="9">
+        <v>43.305836800000002</v>
+      </c>
+      <c r="I97" s="9">
+        <v>-100.6581944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2014</v>
+      </c>
+      <c r="B98" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>388</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+      <c r="G98">
+        <v>361</v>
+      </c>
+      <c r="H98" s="9">
+        <v>43.305836800000002</v>
+      </c>
+      <c r="I98" s="9">
+        <v>-100.6581944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="6">
+        <v>10</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>2</v>
+      </c>
+      <c r="G99" s="6">
         <v>8</v>
       </c>
-      <c r="H95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="H99" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="I99" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+      <c r="J99" s="6">
+        <f>COUNTIF(C99:F103,"&gt;0")/24</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>2011</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="6">
-        <v>240</v>
-      </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="6">
-        <v>44</v>
-      </c>
-      <c r="H96" s="6">
-        <v>194</v>
-      </c>
-      <c r="K96" s="6">
-        <f>COUNTIF(D96:G99,"&gt;0")/24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="B100" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>13</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>12</v>
+      </c>
+      <c r="H100" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="I100" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>2012</v>
       </c>
-      <c r="B97" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97">
-        <v>385</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>27</v>
-      </c>
-      <c r="H97">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>21</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>21</v>
+      </c>
+      <c r="H101" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="I101" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>2013</v>
       </c>
-      <c r="B98" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98">
-        <v>432</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>20</v>
-      </c>
-      <c r="H98">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="B102" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>18</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>18</v>
+      </c>
+      <c r="H102" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="I102" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>2014</v>
       </c>
-      <c r="B99" t="s">
-        <v>54</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99">
-        <v>388</v>
-      </c>
-      <c r="F99">
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>21</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
         <v>2</v>
       </c>
-      <c r="G99">
+      <c r="G103">
+        <v>18</v>
+      </c>
+      <c r="H103" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="I103" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A104" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="6">
+        <v>99</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
         <v>11</v>
       </c>
-      <c r="H99">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="6">
-        <v>10</v>
-      </c>
-      <c r="F100" s="6">
-        <v>0</v>
-      </c>
-      <c r="G100" s="6">
+      <c r="G104" s="6">
+        <v>83</v>
+      </c>
+      <c r="H104" s="11">
+        <v>46.086940800000001</v>
+      </c>
+      <c r="I104" s="11">
+        <v>-100.6301271</v>
+      </c>
+      <c r="J104" s="6">
+        <f>COUNTIF(C104:F109,"&gt;0")/24</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2011</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
         <v>2</v>
       </c>
-      <c r="H100" s="6">
+      <c r="D105">
+        <v>85</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>8</v>
       </c>
-      <c r="K100" s="6">
-        <f>COUNTIF(D100:G104,"&gt;0")/24</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>2011</v>
-      </c>
-      <c r="B101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101">
-        <v>13</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="G105">
+        <v>77</v>
+      </c>
+      <c r="H105" s="11">
+        <v>46.086940800000001</v>
+      </c>
+      <c r="I105" s="11">
+        <v>-100.6301271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>2012</v>
-      </c>
-      <c r="B102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102">
-        <v>21</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>2013</v>
-      </c>
-      <c r="B103" t="s">
-        <v>52</v>
-      </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103">
-        <v>18</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>2014</v>
-      </c>
-      <c r="B104" t="s">
-        <v>52</v>
-      </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
-      <c r="E104">
-        <v>21</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-      <c r="H104">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E105" s="6">
-        <v>99</v>
-      </c>
-      <c r="F105" s="6">
-        <v>0</v>
-      </c>
-      <c r="G105" s="6">
-        <v>11</v>
-      </c>
-      <c r="H105" s="6">
-        <v>83</v>
-      </c>
-      <c r="I105" s="7">
-        <v>46.086940800000001</v>
-      </c>
-      <c r="J105" s="7">
-        <v>-100.6301271</v>
-      </c>
-      <c r="K105" s="6">
-        <f>COUNTIF(D105:G110,"&gt;0")/24</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>2011</v>
       </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
         <v>2</v>
       </c>
+      <c r="D106">
+        <v>123</v>
+      </c>
       <c r="E106">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G106">
-        <v>8</v>
-      </c>
-      <c r="H106">
-        <v>77</v>
-      </c>
-      <c r="I106" s="5">
+        <v>105</v>
+      </c>
+      <c r="H106" s="11">
         <v>46.086940800000001</v>
       </c>
-      <c r="J106" s="5">
+      <c r="I106" s="11">
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>2</v>
       </c>
+      <c r="D107">
+        <v>191</v>
+      </c>
       <c r="E107">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="G107">
-        <v>12</v>
-      </c>
-      <c r="H107">
-        <v>105</v>
-      </c>
-      <c r="I107" s="5">
+        <v>171</v>
+      </c>
+      <c r="H107" s="11">
         <v>46.086940800000001</v>
       </c>
-      <c r="J107" s="5">
+      <c r="I107" s="11">
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
         <v>2</v>
       </c>
+      <c r="D108">
+        <v>130</v>
+      </c>
       <c r="E108">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G108">
-        <v>17</v>
-      </c>
-      <c r="H108">
-        <v>171</v>
-      </c>
-      <c r="I108" s="5">
+        <v>110</v>
+      </c>
+      <c r="H108" s="11">
         <v>46.086940800000001</v>
       </c>
-      <c r="J108" s="5">
+      <c r="I108" s="11">
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
         <v>2</v>
       </c>
+      <c r="D109">
+        <v>72</v>
+      </c>
       <c r="E109">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G109">
-        <v>18</v>
-      </c>
-      <c r="H109">
-        <v>110</v>
-      </c>
-      <c r="I109" s="5">
+        <v>62</v>
+      </c>
+      <c r="H109" s="11">
         <v>46.086940800000001</v>
       </c>
-      <c r="J109" s="5">
+      <c r="I109" s="11">
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>2015</v>
-      </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" t="s">
+    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E110">
-        <v>72</v>
-      </c>
-      <c r="F110">
-        <v>3</v>
-      </c>
-      <c r="G110">
-        <v>7</v>
-      </c>
-      <c r="H110">
-        <v>62</v>
-      </c>
-      <c r="I110" s="5">
-        <v>46.086940800000001</v>
-      </c>
-      <c r="J110" s="5">
-        <v>-100.6301271</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="6">
+        <v>70</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0</v>
+      </c>
+      <c r="G110" s="6">
+        <v>70</v>
+      </c>
+      <c r="H110" s="12">
+        <v>47.981409768372302</v>
+      </c>
+      <c r="I110" s="12">
+        <v>-102.579438102213</v>
+      </c>
+      <c r="J110" s="6">
+        <f>COUNTIF(C110:F110,"&gt;0")/24</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="D111" s="6">
+        <v>85</v>
+      </c>
       <c r="E111" s="6">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F111" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G111" s="6">
-        <v>0</v>
-      </c>
-      <c r="H111" s="6">
-        <v>70</v>
-      </c>
-      <c r="K111" s="6">
-        <f>COUNTIF(D111:G111,"&gt;0")/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B112" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H111" s="11">
+        <v>48.839171200000003</v>
+      </c>
+      <c r="I111" s="11">
+        <v>-99.744868800000006</v>
+      </c>
+      <c r="J111" s="6">
+        <f>COUNTIF(C111:F115,"&gt;0")/24</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2011</v>
+      </c>
+      <c r="B112" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="C112" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="6">
-        <v>85</v>
-      </c>
-      <c r="F112" s="6">
-        <v>1</v>
-      </c>
-      <c r="G112" s="6">
-        <v>7</v>
-      </c>
-      <c r="H112" s="6">
-        <v>76</v>
-      </c>
-      <c r="I112" s="7">
+      <c r="D112">
+        <v>105</v>
+      </c>
+      <c r="E112">
+        <v>8</v>
+      </c>
+      <c r="F112">
+        <v>35</v>
+      </c>
+      <c r="G112">
+        <v>62</v>
+      </c>
+      <c r="H112" s="5">
         <v>48.839171200000003</v>
       </c>
-      <c r="J112" s="7">
+      <c r="I112" s="5">
         <v>-99.744868800000006</v>
       </c>
-      <c r="K112" s="6">
-        <f>COUNTIF(D112:G116,"&gt;0")/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="D113" t="s">
+      <c r="C113" t="s">
         <v>2</v>
       </c>
+      <c r="D113">
+        <v>56</v>
+      </c>
       <c r="E113">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G113">
-        <v>35</v>
-      </c>
-      <c r="H113">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="H113" s="5">
+        <v>48.839171200000003</v>
       </c>
       <c r="I113" s="5">
-        <v>48.839171200000003</v>
-      </c>
-      <c r="J113" s="5">
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
         <v>2</v>
       </c>
+      <c r="D114">
+        <v>89</v>
+      </c>
       <c r="E114">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G114">
-        <v>9</v>
-      </c>
-      <c r="H114">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="H114" s="5">
+        <v>48.839171200000003</v>
       </c>
       <c r="I114" s="5">
-        <v>48.839171200000003</v>
-      </c>
-      <c r="J114" s="5">
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>2</v>
       </c>
+      <c r="D115">
+        <v>21</v>
+      </c>
       <c r="E115">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="F115">
+        <v>5</v>
+      </c>
+      <c r="G115">
+        <v>15</v>
+      </c>
+      <c r="H115" s="5">
+        <v>48.839171200000003</v>
+      </c>
+      <c r="I115" s="5">
+        <v>-99.744868800000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="6">
+        <v>2013</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="6">
+        <v>0</v>
+      </c>
+      <c r="E116" s="6">
+        <v>0</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0</v>
+      </c>
+      <c r="G116" s="6">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>44.763145746391103</v>
+      </c>
+      <c r="I116">
+        <v>-95.512223337896401</v>
+      </c>
+      <c r="J116" s="6">
+        <f>COUNTIF(C116:F116,"&gt;0")/24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="6">
+        <v>2011</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="6">
+        <v>41</v>
+      </c>
+      <c r="E117" s="6">
+        <v>0</v>
+      </c>
+      <c r="F117" s="6">
+        <v>3</v>
+      </c>
+      <c r="G117" s="6">
+        <v>31</v>
+      </c>
+      <c r="H117">
+        <v>46.973120527079601</v>
+      </c>
+      <c r="I117">
+        <v>-95.865281895042301</v>
+      </c>
+      <c r="J117" s="6">
+        <f>COUNTIF(C117:F120,"&gt;0")/24</f>
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2012</v>
+      </c>
+      <c r="B118" t="s">
+        <v>58</v>
+      </c>
+      <c r="C118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118">
+        <v>30</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>2</v>
       </c>
-      <c r="G115">
-        <v>10</v>
-      </c>
-      <c r="H115">
-        <v>74</v>
-      </c>
-      <c r="I115" s="5">
-        <v>48.839171200000003</v>
-      </c>
-      <c r="J115" s="5">
-        <v>-99.744868800000006</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="G118">
+        <v>28</v>
+      </c>
+      <c r="H118">
+        <v>46.973120527079601</v>
+      </c>
+      <c r="I118">
+        <v>-95.865281895042301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2013</v>
+      </c>
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+      <c r="C119" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>17</v>
+      </c>
+      <c r="H119">
+        <v>46.973120527079601</v>
+      </c>
+      <c r="I119">
+        <v>-95.865281895042301</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120">
         <v>2014</v>
       </c>
-      <c r="B116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>21</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>5</v>
-      </c>
-      <c r="H116">
-        <v>15</v>
-      </c>
-      <c r="I116" s="5">
-        <v>48.839171200000003</v>
-      </c>
-      <c r="J116" s="5">
-        <v>-99.744868800000006</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="6">
+      <c r="B120" t="s">
+        <v>58</v>
+      </c>
+      <c r="C120" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120">
+        <v>35</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>46.973120527079601</v>
+      </c>
+      <c r="I120">
+        <v>-95.865281895042301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="6">
+        <v>3</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0</v>
+      </c>
+      <c r="G121" s="6">
+        <v>3</v>
+      </c>
+      <c r="H121" s="9">
+        <v>43.0797156</v>
+      </c>
+      <c r="I121" s="9">
+        <v>-98.293134199999997</v>
+      </c>
+      <c r="J121" s="6">
+        <f>COUNTIF(C121:F124,"&gt;0")/24</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2011</v>
+      </c>
+      <c r="B122" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>11</v>
+      </c>
+      <c r="H122" s="9">
+        <v>43.0797156</v>
+      </c>
+      <c r="I122" s="9">
+        <v>-98.293134199999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2012</v>
+      </c>
+      <c r="B123" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>32</v>
+      </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>26</v>
+      </c>
+      <c r="H123" s="9">
+        <v>43.0797156</v>
+      </c>
+      <c r="I123" s="9">
+        <v>-98.293134199999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>2013</v>
       </c>
-      <c r="B117" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E117" s="6">
-        <v>0</v>
-      </c>
-      <c r="F117" s="6">
-        <v>0</v>
-      </c>
-      <c r="G117" s="6">
-        <v>0</v>
-      </c>
-      <c r="H117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K117" s="6">
-        <f>COUNTIF(D117:G117,"&gt;0")/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="6">
-        <v>2011</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="6">
-        <v>41</v>
-      </c>
-      <c r="F118" s="6">
-        <v>0</v>
-      </c>
-      <c r="G118" s="6">
-        <v>3</v>
-      </c>
-      <c r="H118" s="6">
-        <v>31</v>
-      </c>
-      <c r="K118" s="6">
-        <f>COUNTIF(D118:G121,"&gt;0")/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>2012</v>
-      </c>
-      <c r="B119" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119">
-        <v>30</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>2</v>
-      </c>
-      <c r="H119">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>2013</v>
-      </c>
-      <c r="B120" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120">
-        <v>18</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>2014</v>
-      </c>
-      <c r="B121" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121">
-        <v>35</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="6">
-        <v>3</v>
-      </c>
-      <c r="F122" s="6">
-        <v>0</v>
-      </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6">
-        <v>3</v>
-      </c>
-      <c r="K122" s="6">
-        <f>COUNTIF(D122:G125,"&gt;0")/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2011</v>
-      </c>
-      <c r="B123" t="s">
-        <v>53</v>
-      </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
-      <c r="E123">
-        <v>11</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2012</v>
-      </c>
       <c r="B124" t="s">
-        <v>53</v>
-      </c>
-      <c r="D124" t="s">
-        <v>7</v>
+        <v>52</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>54</v>
       </c>
       <c r="E124">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G124">
-        <v>3</v>
-      </c>
-      <c r="H124">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2013</v>
-      </c>
-      <c r="B125" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
-      <c r="E125">
-        <v>54</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>4</v>
-      </c>
-      <c r="H125">
         <v>48</v>
       </c>
+      <c r="H124" s="9">
+        <v>43.0797156</v>
+      </c>
+      <c r="I124" s="9">
+        <v>-98.293134199999997</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:B125" xr:uid="{C89807F1-6181-4758-B3E2-6B7B45F80E8B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K125">
-    <sortCondition ref="B3:B125"/>
+  <autoFilter ref="B2:B124" xr:uid="{C89807F1-6181-4758-B3E2-6B7B45F80E8B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J124">
+    <sortCondition ref="B3:B124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4155,129 +4783,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2584CA-C63B-4CFF-B844-27950A5086D2}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection sqref="A1:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>48.556917400000003</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="9">
         <v>-113.0134175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="5">
+        <v>66</v>
+      </c>
+      <c r="B3" s="9">
         <v>44.9886537</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="9">
         <v>-101.2224805</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="9">
         <v>45.604141400000003</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="9">
         <v>-107.4645278</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="5">
+        <v>46</v>
+      </c>
+      <c r="B5" s="9">
         <v>44.068601000000001</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="9">
         <v>-99.437884600000004</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44.043509455733499</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-96.603184387447499</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="8">
+        <v>47.628007998691899</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-114.115353414095</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8">
+        <v>46.713569298605499</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-92.516085482087803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="5">
+        <v>55</v>
+      </c>
+      <c r="B9" s="9">
         <v>48.533330900000003</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="9">
         <v>-108.7840463</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="9">
         <v>47.980848299999998</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="9">
         <v>-102.4901804</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="9">
         <v>48.122236000000001</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="9">
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>47.979998600000002</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="9">
         <v>-98.992900500000005</v>
       </c>
     </row>
@@ -4285,175 +4932,236 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
+      <c r="B13" s="8">
+        <v>47.984936478305798</v>
+      </c>
+      <c r="C13" s="8">
+        <v>-98.994198454415994</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8">
+        <v>47.384109616414896</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-94.601092081257704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5">
+        <v>48</v>
+      </c>
+      <c r="B15" s="9">
         <v>44.0748794</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="9">
         <v>-99.580080899999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44.532707621665097</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-94.995835527161105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="B17" s="8">
+        <v>46.178536344161401</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-93.754949868211398</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="B18" s="8">
+        <v>48.113402491235803</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-93.096071201339896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="9">
         <v>45.6230476</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9">
         <v>-106.6666984</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43.026244115782703</v>
+      </c>
+      <c r="C20" s="8">
+        <v>-102.557561839858</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
+      <c r="B21" s="8">
+        <v>45.227353405923097</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-67.577096151310698</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
+      <c r="B22" s="8">
+        <v>44.965800096570099</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-67.0645559156698</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43.025540800000002</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-102.5562743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="9">
+        <v>47.876345999999998</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-95.016940099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9">
+        <v>48.320394999999998</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-110.19352019999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="9">
+        <v>43.305836800000002</v>
+      </c>
+      <c r="C26" s="9">
+        <v>-100.6581944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="5">
-        <v>43.025540800000002</v>
-      </c>
-      <c r="C24" s="5">
-        <v>-102.5562743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="5">
-        <v>47.876345999999998</v>
-      </c>
-      <c r="C25" s="5">
-        <v>-95.016940099999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="5">
-        <v>48.320394999999998</v>
-      </c>
-      <c r="C26" s="5">
-        <v>-110.19352019999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="5">
-        <v>43.305836800000002</v>
-      </c>
-      <c r="C27" s="5">
-        <v>-100.6581944</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+      <c r="B27" s="9">
+        <v>45.565818999999998</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-97.065658600000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5">
-        <v>45.565818999999998</v>
-      </c>
-      <c r="C28" s="5">
-        <v>-97.065658600000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="B28" s="9">
+        <v>46.086940800000001</v>
+      </c>
+      <c r="C28" s="9">
+        <v>-100.6301271</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="5">
-        <v>46.086940800000001</v>
-      </c>
-      <c r="C29" s="5">
-        <v>-100.6301271</v>
+        <v>33</v>
+      </c>
+      <c r="B29" s="8">
+        <v>47.981409768372302</v>
+      </c>
+      <c r="C29" s="8">
+        <v>-102.579438102213</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B30" s="9">
+        <v>48.839171200000003</v>
+      </c>
+      <c r="C30" s="9">
+        <v>-99.744868800000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="5">
-        <v>48.839171200000003</v>
-      </c>
-      <c r="C31" s="5">
-        <v>-99.744868800000006</v>
+        <v>65</v>
+      </c>
+      <c r="B31" s="8">
+        <v>44.763145746391103</v>
+      </c>
+      <c r="C31" s="8">
+        <v>-95.512223337896401</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="B32" s="8">
+        <v>46.973120527079601</v>
+      </c>
+      <c r="C32" s="8">
+        <v>-95.865281895042301</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="5">
+        <v>52</v>
+      </c>
+      <c r="B33" s="9">
         <v>43.0797156</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C33" s="9">
         <v>-98.293134199999997</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -4464,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A05358B-A21F-4395-B759-77A69DFEAC3F}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4478,10 +5186,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4493,13 +5201,13 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
         <v>37</v>
@@ -4564,7 +5272,7 @@
         <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4591,7 +5299,7 @@
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4618,7 +5326,7 @@
         <v>2015</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -4726,7 +5434,7 @@
         <v>2013</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -4753,7 +5461,7 @@
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -4780,7 +5488,7 @@
         <v>2015</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -4807,7 +5515,7 @@
         <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -4834,7 +5542,7 @@
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -4861,7 +5569,7 @@
         <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
         <v>23</v>
@@ -4888,7 +5596,7 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -4915,7 +5623,7 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -4942,7 +5650,7 @@
         <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -4969,7 +5677,7 @@
         <v>2014</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -4996,7 +5704,7 @@
         <v>2015</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -5185,7 +5893,7 @@
         <v>2014</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -5212,7 +5920,7 @@
         <v>2015</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>23</v>
@@ -5239,7 +5947,7 @@
         <v>2013</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
@@ -5266,7 +5974,7 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -5293,7 +6001,7 @@
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -5320,7 +6028,7 @@
         <v>2013</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -5347,7 +6055,7 @@
         <v>2014</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -5374,7 +6082,7 @@
         <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -5389,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="1">F34+G34</f>
+        <f t="shared" ref="H34:H64" si="1">F34+G34</f>
         <v>1</v>
       </c>
       <c r="I34">
@@ -5401,7 +6109,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>23</v>
@@ -5428,7 +6136,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -5455,7 +6163,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>23</v>
@@ -5482,7 +6190,7 @@
         <v>2013</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -5509,7 +6217,7 @@
         <v>2014</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
         <v>23</v>
@@ -5536,7 +6244,7 @@
         <v>2015</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -5644,7 +6352,7 @@
         <v>2013</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
@@ -5671,7 +6379,7 @@
         <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
@@ -5698,7 +6406,7 @@
         <v>2013</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>23</v>
@@ -5725,7 +6433,7 @@
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>23</v>
@@ -5752,7 +6460,7 @@
         <v>2015</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>23</v>
@@ -5860,7 +6568,7 @@
         <v>2013</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -5887,7 +6595,7 @@
         <v>2014</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -5914,7 +6622,7 @@
         <v>2013</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -5941,7 +6649,7 @@
         <v>2014</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -6103,7 +6811,7 @@
         <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>23</v>
@@ -6130,7 +6838,7 @@
         <v>2013</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
@@ -6157,7 +6865,7 @@
         <v>2014</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
         <v>23</v>
@@ -6184,7 +6892,7 @@
         <v>2013</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>

--- a/map-data/personal-datasets/XLSX/tirbalCrimeBJS.xlsx
+++ b/map-data/personal-datasets/XLSX/tirbalCrimeBJS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\DIGIT\GitHub\NativeGone\map-data\personal-datasets\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA6B3A-683E-42FC-B359-B380C8BC6287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF71214-67BE-4C04-A9C5-B362DE864D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{482D3894-D319-4223-980A-378D19ED0A31}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="71">
   <si>
     <t>State</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rape Combined </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count </t>
   </si>
   <si>
     <t>Tribe/Agency</t>
@@ -1088,9 +1085,7 @@
       <c r="I1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
@@ -1120,10 +1115,6 @@
       <c r="I2" s="9">
         <v>-113.0134175</v>
       </c>
-      <c r="J2" s="6">
-        <f>COUNTIF(D2:G6,"&gt;0")/24</f>
-        <v>0.41666666666666669</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -1269,10 +1260,6 @@
       <c r="I7" s="9">
         <v>-101.2224805</v>
       </c>
-      <c r="J7" s="6">
-        <f>COUNTIF(D7:G9,"&gt;0")/24</f>
-        <v>0.45833333333333331</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -1360,10 +1347,6 @@
       <c r="I10" s="9">
         <v>-107.4645278</v>
       </c>
-      <c r="J10" s="6">
-        <f>COUNTIF(D10:G15,"&gt;0")/24</f>
-        <v>0.875</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -1535,12 +1518,8 @@
       <c r="I16" s="9">
         <v>-99.437884600000004</v>
       </c>
-      <c r="J16" s="6">
-        <f>COUNTIF(D16:G21,"&gt;0")/24</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2011</v>
       </c>
@@ -1569,7 +1548,7 @@
         <v>-99.437884600000004</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -1598,7 +1577,7 @@
         <v>-99.437884600000004</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2013</v>
       </c>
@@ -1627,7 +1606,7 @@
         <v>-99.437884600000004</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2014</v>
       </c>
@@ -1656,7 +1635,7 @@
         <v>-99.437884600000004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2015</v>
       </c>
@@ -1685,7 +1664,7 @@
         <v>-99.437884600000004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>2010</v>
       </c>
@@ -1713,12 +1692,8 @@
       <c r="I22">
         <v>-96.603184387447499</v>
       </c>
-      <c r="J22" s="6">
-        <f>COUNTIF(D22:G26,"&gt;0")/24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -1747,7 +1722,7 @@
         <v>-96.603184387447499</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -1776,7 +1751,7 @@
         <v>-96.603184387447499</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1805,7 +1780,7 @@
         <v>-96.603184387447499</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -1834,7 +1809,7 @@
         <v>-96.603184387447499</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2011</v>
       </c>
@@ -1862,12 +1837,8 @@
       <c r="I27">
         <v>-114.115353414095</v>
       </c>
-      <c r="J27" s="6">
-        <f>COUNTIF(D27:G28,"&gt;0")/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -1896,7 +1867,7 @@
         <v>-114.115353414095</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>2013</v>
       </c>
@@ -1924,12 +1895,8 @@
       <c r="I29">
         <v>-92.516085482087803</v>
       </c>
-      <c r="J29" s="6">
-        <f>COUNTIF(D29:G31,"&gt;0")/24</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2014</v>
       </c>
@@ -1958,7 +1925,7 @@
         <v>-92.516085482087803</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2015</v>
       </c>
@@ -1987,7 +1954,7 @@
         <v>-92.516085482087803</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>2011</v>
       </c>
@@ -2015,12 +1982,8 @@
       <c r="I32" s="9">
         <v>-108.7840463</v>
       </c>
-      <c r="J32" s="6">
-        <f>COUNTIF(D32:G36,"&gt;0")/24</f>
-        <v>0.70833333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2012</v>
       </c>
@@ -2049,7 +2012,7 @@
         <v>-108.7840463</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -2078,7 +2041,7 @@
         <v>-108.7840463</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2014</v>
       </c>
@@ -2104,7 +2067,7 @@
         <v>-108.7840463</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2015</v>
       </c>
@@ -2133,7 +2096,7 @@
         <v>-108.7840463</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>2011</v>
       </c>
@@ -2161,12 +2124,8 @@
       <c r="I37" s="9">
         <v>-102.4901804</v>
       </c>
-      <c r="J37" s="6">
-        <f>COUNTIF(D37:G38,"&gt;0")/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2014</v>
       </c>
@@ -2195,7 +2154,7 @@
         <v>-102.4901804</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>2010</v>
       </c>
@@ -2223,12 +2182,8 @@
       <c r="I39" s="9">
         <v>-105.183425</v>
       </c>
-      <c r="J39" s="6">
-        <f>COUNTIF(D39:G44,"&gt;0")/24</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -2257,7 +2212,7 @@
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -2286,7 +2241,7 @@
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2013</v>
       </c>
@@ -2315,7 +2270,7 @@
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -2341,7 +2296,7 @@
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -2370,7 +2325,7 @@
         <v>-105.183425</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>2011</v>
       </c>
@@ -2398,12 +2353,8 @@
       <c r="I45" s="10">
         <v>-98.992900500000005</v>
       </c>
-      <c r="J45" s="6">
-        <f>COUNTIF(D45:G48,"&gt;0")/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -2432,7 +2383,7 @@
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -2461,7 +2412,7 @@
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2015</v>
       </c>
@@ -2490,7 +2441,7 @@
         <v>-98.992900500000005</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>2010</v>
       </c>
@@ -2518,12 +2469,8 @@
       <c r="I49" s="10">
         <v>-98.992900500000005</v>
       </c>
-      <c r="J49" s="6">
-        <f>COUNTIF(D49:G49,"&gt;0")/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>2011</v>
       </c>
@@ -2551,12 +2498,8 @@
       <c r="I50">
         <v>-94.601092081257704</v>
       </c>
-      <c r="J50" s="6">
-        <f>COUNTIF(D50:G53,"&gt;0")/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2012</v>
       </c>
@@ -2585,7 +2528,7 @@
         <v>-94.601092081257704</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -2614,7 +2557,7 @@
         <v>-94.601092081257704</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2015</v>
       </c>
@@ -2643,7 +2586,7 @@
         <v>-94.601092081257704</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>2010</v>
       </c>
@@ -2671,12 +2614,8 @@
       <c r="I54" s="9">
         <v>-99.580080899999999</v>
       </c>
-      <c r="J54" s="6">
-        <f>COUNTIF(D54:G59,"&gt;0")/24</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2011</v>
       </c>
@@ -2705,7 +2644,7 @@
         <v>-99.580080899999999</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2012</v>
       </c>
@@ -2734,7 +2673,7 @@
         <v>-99.580080899999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2013</v>
       </c>
@@ -2763,7 +2702,7 @@
         <v>-99.580080899999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -2792,7 +2731,7 @@
         <v>-99.580080899999999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2015</v>
       </c>
@@ -2821,7 +2760,7 @@
         <v>-99.580080899999999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>2013</v>
       </c>
@@ -2849,12 +2788,8 @@
       <c r="I60">
         <v>-94.995835527161105</v>
       </c>
-      <c r="J60" s="6">
-        <f>COUNTIF(D60:G62,"&gt;0")/24</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2014</v>
       </c>
@@ -2883,7 +2818,7 @@
         <v>-94.995835527161105</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -2912,7 +2847,7 @@
         <v>-94.995835527161105</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>2013</v>
       </c>
@@ -2940,12 +2875,8 @@
       <c r="I63">
         <v>-93.754949868211398</v>
       </c>
-      <c r="J63" s="6">
-        <f>COUNTIF(D63:G65,"&gt;0")/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2014</v>
       </c>
@@ -2974,7 +2905,7 @@
         <v>-93.754949868211398</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -3003,7 +2934,7 @@
         <v>-93.754949868211398</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>2011</v>
       </c>
@@ -3031,12 +2962,8 @@
       <c r="I66">
         <v>-93.096071201339896</v>
       </c>
-      <c r="J66" s="6">
-        <f>COUNTIF(D66:G70,"&gt;0")/24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2012</v>
       </c>
@@ -3065,7 +2992,7 @@
         <v>-93.096071201339896</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2013</v>
       </c>
@@ -3094,7 +3021,7 @@
         <v>-93.096071201339896</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2014</v>
       </c>
@@ -3123,7 +3050,7 @@
         <v>-93.096071201339896</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -3152,7 +3079,7 @@
         <v>-93.096071201339896</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>2010</v>
       </c>
@@ -3180,12 +3107,8 @@
       <c r="I71" s="9">
         <v>-106.6666984</v>
       </c>
-      <c r="J71" s="6">
-        <f>COUNTIF(D71:G76,"&gt;0")/24</f>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2011</v>
       </c>
@@ -3214,7 +3137,7 @@
         <v>-106.6666984</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2012</v>
       </c>
@@ -3243,7 +3166,7 @@
         <v>-106.6666984</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2013</v>
       </c>
@@ -3272,7 +3195,7 @@
         <v>-106.6666984</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2014</v>
       </c>
@@ -3298,7 +3221,7 @@
         <v>-106.6666984</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -3327,7 +3250,7 @@
         <v>-106.6666984</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>2010</v>
       </c>
@@ -3355,12 +3278,8 @@
       <c r="I77">
         <v>-102.557561839858</v>
       </c>
-      <c r="J77" s="6">
-        <f>COUNTIF(D77:G80,"&gt;0")/24</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2011</v>
       </c>
@@ -3389,7 +3308,7 @@
         <v>-102.557561839858</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2012</v>
       </c>
@@ -3418,7 +3337,7 @@
         <v>-102.557561839858</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2013</v>
       </c>
@@ -3447,7 +3366,7 @@
         <v>-102.557561839858</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>2010</v>
       </c>
@@ -3475,12 +3394,8 @@
       <c r="I81">
         <v>-67.577096151310698</v>
       </c>
-      <c r="J81" s="6">
-        <f>COUNTIF(D81:G81,"&gt;0")/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2010</v>
       </c>
@@ -3508,12 +3423,8 @@
       <c r="I82">
         <v>-67.0645559156698</v>
       </c>
-      <c r="J82" s="6">
-        <f>COUNTIF(D82:G82,"&gt;0")/24</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>2010</v>
       </c>
@@ -3541,12 +3452,8 @@
       <c r="I83" s="9">
         <v>-102.5562743</v>
       </c>
-      <c r="J83" s="6">
-        <f>COUNTIF(D83:G85,"&gt;0")/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -3575,7 +3482,7 @@
         <v>-102.5562743</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2014</v>
       </c>
@@ -3604,7 +3511,7 @@
         <v>-102.5562743</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>2013</v>
       </c>
@@ -3632,12 +3539,8 @@
       <c r="I86" s="9">
         <v>-95.016940099999999</v>
       </c>
-      <c r="J86" s="6">
-        <f>COUNTIF(D86:G88,"&gt;0")/24</f>
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2014</v>
       </c>
@@ -3666,7 +3569,7 @@
         <v>-95.016940099999999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2015</v>
       </c>
@@ -3695,7 +3598,7 @@
         <v>-95.016940099999999</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>2010</v>
       </c>
@@ -3723,12 +3626,8 @@
       <c r="I89" s="9">
         <v>-110.19352019999999</v>
       </c>
-      <c r="J89" s="6">
-        <f>COUNTIF(D89:G94,"&gt;0")/24</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2011</v>
       </c>
@@ -3757,7 +3656,7 @@
         <v>-110.19352019999999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2012</v>
       </c>
@@ -3786,7 +3685,7 @@
         <v>-110.19352019999999</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2013</v>
       </c>
@@ -3815,7 +3714,7 @@
         <v>-110.19352019999999</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2014</v>
       </c>
@@ -3841,7 +3740,7 @@
         <v>-110.19352019999999</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2015</v>
       </c>
@@ -3870,7 +3769,7 @@
         <v>-110.19352019999999</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>2011</v>
       </c>
@@ -3898,12 +3797,8 @@
       <c r="I95" s="9">
         <v>-100.6581944</v>
       </c>
-      <c r="J95" s="6">
-        <f>COUNTIF(C95:F98,"&gt;0")/24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2012</v>
       </c>
@@ -3932,7 +3827,7 @@
         <v>-100.6581944</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2013</v>
       </c>
@@ -3961,7 +3856,7 @@
         <v>-100.6581944</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2014</v>
       </c>
@@ -3990,7 +3885,7 @@
         <v>-100.6581944</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>2010</v>
       </c>
@@ -4018,12 +3913,8 @@
       <c r="I99" s="9">
         <v>-97.065658600000006</v>
       </c>
-      <c r="J99" s="6">
-        <f>COUNTIF(C99:F103,"&gt;0")/24</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2011</v>
       </c>
@@ -4052,7 +3943,7 @@
         <v>-97.065658600000006</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2012</v>
       </c>
@@ -4081,7 +3972,7 @@
         <v>-97.065658600000006</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2013</v>
       </c>
@@ -4110,7 +4001,7 @@
         <v>-97.065658600000006</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2014</v>
       </c>
@@ -4139,7 +4030,7 @@
         <v>-97.065658600000006</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>2010</v>
       </c>
@@ -4167,12 +4058,8 @@
       <c r="I104" s="11">
         <v>-100.6301271</v>
       </c>
-      <c r="J104" s="6">
-        <f>COUNTIF(C104:F109,"&gt;0")/24</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2011</v>
       </c>
@@ -4201,7 +4088,7 @@
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2012</v>
       </c>
@@ -4230,7 +4117,7 @@
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2013</v>
       </c>
@@ -4259,7 +4146,7 @@
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2014</v>
       </c>
@@ -4288,7 +4175,7 @@
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2015</v>
       </c>
@@ -4317,7 +4204,7 @@
         <v>-100.6301271</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>2010</v>
       </c>
@@ -4345,12 +4232,8 @@
       <c r="I110" s="12">
         <v>-102.579438102213</v>
       </c>
-      <c r="J110" s="6">
-        <f>COUNTIF(C110:F110,"&gt;0")/24</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>2010</v>
       </c>
@@ -4378,12 +4261,8 @@
       <c r="I111" s="11">
         <v>-99.744868800000006</v>
       </c>
-      <c r="J111" s="6">
-        <f>COUNTIF(C111:F115,"&gt;0")/24</f>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -4412,7 +4291,7 @@
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -4441,7 +4320,7 @@
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -4470,7 +4349,7 @@
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -4499,7 +4378,7 @@
         <v>-99.744868800000006</v>
       </c>
     </row>
-    <row r="116" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>2013</v>
       </c>
@@ -4527,12 +4406,8 @@
       <c r="I116">
         <v>-95.512223337896401</v>
       </c>
-      <c r="J116" s="6">
-        <f>COUNTIF(C116:F116,"&gt;0")/24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>2011</v>
       </c>
@@ -4560,12 +4435,8 @@
       <c r="I117">
         <v>-95.865281895042301</v>
       </c>
-      <c r="J117" s="6">
-        <f>COUNTIF(C117:F120,"&gt;0")/24</f>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2012</v>
       </c>
@@ -4594,7 +4465,7 @@
         <v>-95.865281895042301</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2013</v>
       </c>
@@ -4623,7 +4494,7 @@
         <v>-95.865281895042301</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2014</v>
       </c>
@@ -4652,7 +4523,7 @@
         <v>-95.865281895042301</v>
       </c>
     </row>
-    <row r="121" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>2010</v>
       </c>
@@ -4680,12 +4551,8 @@
       <c r="I121" s="9">
         <v>-98.293134199999997</v>
       </c>
-      <c r="J121" s="6">
-        <f>COUNTIF(C121:F124,"&gt;0")/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2011</v>
       </c>
@@ -4714,7 +4581,7 @@
         <v>-98.293134199999997</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2012</v>
       </c>
@@ -4743,7 +4610,7 @@
         <v>-98.293134199999997</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2013</v>
       </c>
@@ -4774,7 +4641,7 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:B124" xr:uid="{C89807F1-6181-4758-B3E2-6B7B45F80E8B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J124">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I124">
     <sortCondition ref="B3:B124"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4798,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>67</v>
